--- a/biology/Histoire de la zoologie et de la botanique/Reginald_Ernest_Moreau/Reginald_Ernest_Moreau.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Reginald_Ernest_Moreau/Reginald_Ernest_Moreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reginald Ernest Moreau est un ornithologue amateur britannique, né en 1897 à Kingston-upon-Thames et mort en 1970.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études, il entre, en 1914, dans l’administration et sert en Grande-Bretagne et en Égypte. Il sert dans le service de recherche agricole coloniale de 1928 à 1946 à Amani, Tanganyika. Moreau consacre ses loisirs et sa retraite à l’ornithologie. Il devient l’éditeur de la revue Ibis de 1947 à 1960 et travaille pour l’Edward Grey Institute d’Oxford de 1947 à 1966. Son livre, The Palaearctic-African bird migration systems, est complété après sa mort par James F. Monk. Moreau est l’auteur de très nombreuses observations qu’il réalise en Afrique.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Courte biographie sur Archives Hub</t>
         </is>
